--- a/Sponsors_tracker.xlsx
+++ b/Sponsors_tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usherbrooke.sharepoint.com/sites/CCIadministration/Documents partages/General/7. Documents importants bureaucratique/5. Commandites/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\Universite\C3I\documents_sponsors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="11_2A016B4878FFB385A8B3E990B0AAE032573D00FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74089BED-AA1A-4D60-9CF8-04FF9829B787}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0461BE20-6D24-4D23-8C9B-FBFF1FF8829C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27180" yWindow="10764" windowWidth="27288" windowHeight="17544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t>Nom de la compagnie:</t>
   </si>
@@ -336,13 +336,28 @@
   </si>
   <si>
     <t>info@tmetrix.com</t>
+  </si>
+  <si>
+    <t>Jérémy Devloo</t>
+  </si>
+  <si>
+    <t>JRT Automatisation</t>
+  </si>
+  <si>
+    <t>https://www.jrtinc.com/</t>
+  </si>
+  <si>
+    <t>(418)871-6016</t>
+  </si>
+  <si>
+    <t>David Bélanger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,8 +439,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03CED010-F252-4D3C-92DB-BBD0C0DEFA99}" name="Tableau2" displayName="Tableau2" ref="A1:K37" totalsRowShown="0">
   <autoFilter ref="A1:K37" xr:uid="{03CED010-F252-4D3C-92DB-BBD0C0DEFA99}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K37">
-    <sortCondition descending="1" ref="G1:G37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K28">
+    <sortCondition ref="G1:G37"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{572C99DB-11BA-421B-A674-C3FD19D5D1FD}" name="Nom de la compagnie:"/>
@@ -761,27 +776,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -816,75 +831,99 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4">
-        <v>45728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>45728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15">
+        <v>45622</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45637</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45623</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4">
-        <v>45728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G5" s="4">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -910,319 +949,304 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4">
         <v>45945</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H19" s="4">
         <v>45665</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45623</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="4">
-        <v>45623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45940</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4">
-        <v>45622</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45622</v>
-      </c>
-      <c r="H12" s="4">
-        <v>45637</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15">
-      <c r="A13" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4">
         <v>45945</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="4">
-        <v>45931</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45931</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="4">
-        <v>45932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45931</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="4">
-        <v>45940</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
+        <v>92</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="4">
-        <v>45940</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="4">
-        <v>45940</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -1231,127 +1255,116 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="4">
-        <v>45945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45945</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="4">
-        <v>45945</v>
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="4">
+        <v>46053</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{58756753-ADD4-43D2-9C92-465FEFC7F8DB}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{3C71264C-E417-4240-8833-DBA0E2459106}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{55A71C02-8BA6-4670-9372-FF8043435F95}"/>
-    <hyperlink ref="B12" r:id="rId4" xr:uid="{C584979B-6195-4012-9A8B-884F682BD0EB}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{C7F05813-EDCA-41CA-B9C1-B0209C4D374B}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{1EE7A716-D363-48DD-9439-A8B2640C20A6}"/>
-    <hyperlink ref="B2" r:id="rId7" xr:uid="{3E251AC2-D5EF-4D82-AA37-D2DBC16D0088}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{765B52ED-384D-4798-B1F4-D73A28E57566}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{66688C33-3E54-4DA8-B7DA-5787422D57D7}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{9FFCEFA4-AD0C-44FB-B39B-CDFC697CA52D}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{27C03D0F-B9A2-4B19-BB24-68C3DE75DCD2}"/>
-    <hyperlink ref="D10" r:id="rId12" xr:uid="{684FB9C7-D760-4FC4-9ED0-9E47604BEFE1}"/>
-    <hyperlink ref="B3" r:id="rId13" xr:uid="{418D45E1-CDA8-494C-A618-3B5702954AB4}"/>
-    <hyperlink ref="B9" r:id="rId14" xr:uid="{E91A5134-977D-443E-A148-AEEE2CD1CFA7}"/>
-    <hyperlink ref="D2" r:id="rId15" xr:uid="{FA282174-1BFC-4C59-A1A1-3AE08BFCC61C}"/>
-    <hyperlink ref="D12" r:id="rId16" xr:uid="{CD5527DE-1F55-4496-B419-730ED46BEB53}"/>
-    <hyperlink ref="B5" r:id="rId17" xr:uid="{3FA26C7D-DA27-41F2-BB23-CF78ED0E214B}"/>
-    <hyperlink ref="D5" r:id="rId18" xr:uid="{75CD0C03-F2B8-48D2-99F0-576A841391DB}"/>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{58756753-ADD4-43D2-9C92-465FEFC7F8DB}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{3C71264C-E417-4240-8833-DBA0E2459106}"/>
+    <hyperlink ref="B20" r:id="rId3" xr:uid="{55A71C02-8BA6-4670-9372-FF8043435F95}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{C584979B-6195-4012-9A8B-884F682BD0EB}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{C7F05813-EDCA-41CA-B9C1-B0209C4D374B}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{1EE7A716-D363-48DD-9439-A8B2640C20A6}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{3E251AC2-D5EF-4D82-AA37-D2DBC16D0088}"/>
+    <hyperlink ref="B19" r:id="rId8" xr:uid="{765B52ED-384D-4798-B1F4-D73A28E57566}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{66688C33-3E54-4DA8-B7DA-5787422D57D7}"/>
+    <hyperlink ref="B26" r:id="rId10" xr:uid="{9FFCEFA4-AD0C-44FB-B39B-CDFC697CA52D}"/>
+    <hyperlink ref="B27" r:id="rId11" xr:uid="{27C03D0F-B9A2-4B19-BB24-68C3DE75DCD2}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{684FB9C7-D760-4FC4-9ED0-9E47604BEFE1}"/>
+    <hyperlink ref="B9" r:id="rId13" xr:uid="{418D45E1-CDA8-494C-A618-3B5702954AB4}"/>
+    <hyperlink ref="B5" r:id="rId14" xr:uid="{E91A5134-977D-443E-A148-AEEE2CD1CFA7}"/>
+    <hyperlink ref="D8" r:id="rId15" xr:uid="{FA282174-1BFC-4C59-A1A1-3AE08BFCC61C}"/>
+    <hyperlink ref="D3" r:id="rId16" xr:uid="{CD5527DE-1F55-4496-B419-730ED46BEB53}"/>
+    <hyperlink ref="B7" r:id="rId17" xr:uid="{3FA26C7D-DA27-41F2-BB23-CF78ED0E214B}"/>
+    <hyperlink ref="D7" r:id="rId18" xr:uid="{75CD0C03-F2B8-48D2-99F0-576A841391DB}"/>
     <hyperlink ref="B6" r:id="rId19" xr:uid="{1758E444-2F5D-4545-8043-3AB40275CEBD}"/>
     <hyperlink ref="D6" r:id="rId20" xr:uid="{2BF8162F-6692-4F75-9832-AF4B8B79B5FA}"/>
-    <hyperlink ref="D3" r:id="rId21" xr:uid="{C4C35DC1-0202-4E36-95D5-91A0E8909818}"/>
-    <hyperlink ref="B4" r:id="rId22" xr:uid="{A186C2FB-14CC-4420-B9A8-A913ECAEFB85}"/>
-    <hyperlink ref="B17" r:id="rId23" xr:uid="{F82B74C4-F485-4B74-AB9C-AB204F89E1E3}"/>
-    <hyperlink ref="D17" r:id="rId24" xr:uid="{4AA721AD-3221-446C-8994-62F554EFADC6}"/>
-    <hyperlink ref="B18" r:id="rId25" xr:uid="{9DC897D1-F482-4F9D-AB23-365B625E117A}"/>
-    <hyperlink ref="B19" r:id="rId26" xr:uid="{00683B2F-9C70-43FA-B580-3563D0145650}"/>
-    <hyperlink ref="D21" r:id="rId27" xr:uid="{3296739E-C8B0-4F43-985E-58D65D2466EF}"/>
-    <hyperlink ref="B21" r:id="rId28" xr:uid="{FB76CD6B-8C26-4E4C-8D3D-C4BDEA9D6071}"/>
-    <hyperlink ref="B22" r:id="rId29" display="https://can01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.cae.com%2Ffr%2Fdeveloppement-durable%2Fsocial-capital&amp;data=05%7C02%7CJacob.Turcotte%40USherbrooke.ca%7Cf552064d13764dbdba3d08de0817bbb3%7C3a5a8744593545f99423b32c3a5de082%7C0%7C0%7C638957095211207780%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=qZtCtqg7o8pkUx1EijKrJzh%2FSQxy5%2FoSNwOsOVPCK1E%3D&amp;reserved=0" xr:uid="{F8016465-BCCB-4D48-827A-0A48FA42721A}"/>
-    <hyperlink ref="B23" r:id="rId30" xr:uid="{C3016548-1C30-4C40-B441-48B318971308}"/>
-    <hyperlink ref="D23" r:id="rId31" xr:uid="{DDF23EFB-72C3-452B-80C1-CC35B6F23547}"/>
-    <hyperlink ref="B24" r:id="rId32" xr:uid="{61C710F8-6DAA-4051-AA4B-ABF167EFCB1C}"/>
-    <hyperlink ref="B25" r:id="rId33" xr:uid="{F4253402-1BC1-4DC4-BC57-C01813E79124}"/>
-    <hyperlink ref="B26" r:id="rId34" xr:uid="{B85D64C7-485F-42F6-BE9E-A81B60750E7B}"/>
-    <hyperlink ref="B27" r:id="rId35" xr:uid="{73DD9488-3DF7-4E37-B4F8-E9765B3A9A1F}"/>
-    <hyperlink ref="D27" r:id="rId36" xr:uid="{5DEFFF2B-9D39-4469-B539-6E6F35E298C1}"/>
-    <hyperlink ref="D26" r:id="rId37" xr:uid="{0251343A-312E-4858-BEEF-40EBC6753CC6}"/>
-    <hyperlink ref="D25" r:id="rId38" xr:uid="{7FF4ED92-A053-4CF4-83AB-C9C042A1B560}"/>
-    <hyperlink ref="D24" r:id="rId39" xr:uid="{89156B4A-71FB-4F13-9FBB-24BC0399790D}"/>
+    <hyperlink ref="D9" r:id="rId21" xr:uid="{C4C35DC1-0202-4E36-95D5-91A0E8909818}"/>
+    <hyperlink ref="B10" r:id="rId22" xr:uid="{A186C2FB-14CC-4420-B9A8-A913ECAEFB85}"/>
+    <hyperlink ref="B11" r:id="rId23" xr:uid="{F82B74C4-F485-4B74-AB9C-AB204F89E1E3}"/>
+    <hyperlink ref="D11" r:id="rId24" xr:uid="{4AA721AD-3221-446C-8994-62F554EFADC6}"/>
+    <hyperlink ref="B12" r:id="rId25" xr:uid="{9DC897D1-F482-4F9D-AB23-365B625E117A}"/>
+    <hyperlink ref="B14" r:id="rId26" xr:uid="{00683B2F-9C70-43FA-B580-3563D0145650}"/>
+    <hyperlink ref="D16" r:id="rId27" xr:uid="{3296739E-C8B0-4F43-985E-58D65D2466EF}"/>
+    <hyperlink ref="B16" r:id="rId28" xr:uid="{FB76CD6B-8C26-4E4C-8D3D-C4BDEA9D6071}"/>
+    <hyperlink ref="B17" r:id="rId29" display="https://can01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.cae.com%2Ffr%2Fdeveloppement-durable%2Fsocial-capital&amp;data=05%7C02%7CJacob.Turcotte%40USherbrooke.ca%7Cf552064d13764dbdba3d08de0817bbb3%7C3a5a8744593545f99423b32c3a5de082%7C0%7C0%7C638957095211207780%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=qZtCtqg7o8pkUx1EijKrJzh%2FSQxy5%2FoSNwOsOVPCK1E%3D&amp;reserved=0" xr:uid="{F8016465-BCCB-4D48-827A-0A48FA42721A}"/>
+    <hyperlink ref="B18" r:id="rId30" xr:uid="{C3016548-1C30-4C40-B441-48B318971308}"/>
+    <hyperlink ref="D18" r:id="rId31" xr:uid="{DDF23EFB-72C3-452B-80C1-CC35B6F23547}"/>
+    <hyperlink ref="B21" r:id="rId32" xr:uid="{61C710F8-6DAA-4051-AA4B-ABF167EFCB1C}"/>
+    <hyperlink ref="B22" r:id="rId33" xr:uid="{F4253402-1BC1-4DC4-BC57-C01813E79124}"/>
+    <hyperlink ref="B23" r:id="rId34" xr:uid="{B85D64C7-485F-42F6-BE9E-A81B60750E7B}"/>
+    <hyperlink ref="B24" r:id="rId35" xr:uid="{73DD9488-3DF7-4E37-B4F8-E9765B3A9A1F}"/>
+    <hyperlink ref="D24" r:id="rId36" xr:uid="{5DEFFF2B-9D39-4469-B539-6E6F35E298C1}"/>
+    <hyperlink ref="D23" r:id="rId37" xr:uid="{0251343A-312E-4858-BEEF-40EBC6753CC6}"/>
+    <hyperlink ref="D22" r:id="rId38" xr:uid="{7FF4ED92-A053-4CF4-83AB-C9C042A1B560}"/>
+    <hyperlink ref="D21" r:id="rId39" xr:uid="{89156B4A-71FB-4F13-9FBB-24BC0399790D}"/>
+    <hyperlink ref="B28" r:id="rId40" xr:uid="{F3B1B291-4F14-462E-8A9D-E98522D69A4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId41"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="05dc0aba-4466-4464-ae54-e30ec1d1960e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ab60a15-fb7d-489d-9e0d-4f2626c05be0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100873BCB8DB02F314E9B33D47D2328BEE3" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e554ae5040b51359eb2ce52773233a0a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ab60a15-fb7d-489d-9e0d-4f2626c05be0" xmlns:ns3="05dc0aba-4466-4464-ae54-e30ec1d1960e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19c39bb3469a366f9905408a925319f0" ns2:_="" ns3:_="">
     <xsd:import namespace="3ab60a15-fb7d-489d-9e0d-4f2626c05be0"/>
@@ -1546,14 +1559,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="05dc0aba-4466-4464-ae54-e30ec1d1960e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ab60a15-fb7d-489d-9e0d-4f2626c05be0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A185DED4-5536-4DE8-9ED1-973A2272A88F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9257EC00-C374-4722-9DA7-ED3C4D9C653E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ab60a15-fb7d-489d-9e0d-4f2626c05be0"/>
+    <ds:schemaRef ds:uri="05dc0aba-4466-4464-ae54-e30ec1d1960e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E9BF95E-040F-4DB3-8CBA-B5E6AB45C8E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E9BF95E-040F-4DB3-8CBA-B5E6AB45C8E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9257EC00-C374-4722-9DA7-ED3C4D9C653E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A185DED4-5536-4DE8-9ED1-973A2272A88F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="05dc0aba-4466-4464-ae54-e30ec1d1960e"/>
+    <ds:schemaRef ds:uri="3ab60a15-fb7d-489d-9e0d-4f2626c05be0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Sponsors_tracker.xlsx
+++ b/Sponsors_tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\Projet Perso\C3I\Github\Fork\documents_sponsors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierduchesne/Code/Projet S1/documents_sponsors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59369859-E3A4-44C0-848D-6D27FAA85ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0771018-83D4-074E-B509-C2B4CCC07441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="660" windowWidth="24980" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>Nom de la compagnie:</t>
   </si>
@@ -360,13 +360,25 @@
   </si>
   <si>
     <t>Maxime Leblanc</t>
+  </si>
+  <si>
+    <t>Celestica</t>
+  </si>
+  <si>
+    <t>https://www.celestica.com/</t>
+  </si>
+  <si>
+    <t>media@celestica.com</t>
+  </si>
+  <si>
+    <t>Olivier Duchesne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +414,19 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF33CCCC"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -424,16 +449,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -792,27 +819,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -870,7 +897,7 @@
         <v>46054</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -896,7 +923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -922,7 +949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -939,7 +966,7 @@
         <v>45623</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -965,7 +992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -982,7 +1009,7 @@
         <v>45720</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -999,11 +1026,11 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1016,7 +1043,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1033,7 +1060,7 @@
         <v>45728</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -1050,7 +1077,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -1067,7 +1094,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -1081,7 +1108,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -1098,7 +1125,7 @@
         <v>45932</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1115,7 +1142,7 @@
         <v>45940</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -1132,7 +1159,7 @@
         <v>45940</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1149,7 +1176,7 @@
         <v>45940</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1166,7 +1193,7 @@
         <v>45940</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1189,7 +1216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1203,7 +1230,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -1220,7 +1247,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1237,7 +1264,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -1254,7 +1281,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -1271,7 +1298,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1279,7 +1306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1296,7 +1323,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1313,11 +1340,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E28" t="s">
@@ -1330,8 +1357,8 @@
         <v>46053</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1342,6 +1369,25 @@
       </c>
       <c r="G29" s="4">
         <v>46031</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="8">
+        <v>46063</v>
       </c>
     </row>
   </sheetData>
@@ -1396,6 +1442,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="05dc0aba-4466-4464-ae54-e30ec1d1960e" xsi:nil="true"/>
@@ -1404,15 +1459,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1611,20 +1657,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E9BF95E-040F-4DB3-8CBA-B5E6AB45C8E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A185DED4-5536-4DE8-9ED1-973A2272A88F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="05dc0aba-4466-4464-ae54-e30ec1d1960e"/>
     <ds:schemaRef ds:uri="3ab60a15-fb7d-489d-9e0d-4f2626c05be0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E9BF95E-040F-4DB3-8CBA-B5E6AB45C8E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
